--- a/seeds.xlsx
+++ b/seeds.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/stefanie_lane_ubc_ca/Documents/Documents/Dissertation/HabitatRecovery/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{D8E62D5B-C535-44F7-80BA-74C067CE4406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E7F892C-28FB-4687-BEBC-103EEE5CCF32}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{D8E62D5B-C535-44F7-80BA-74C067CE4406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9026954-B55C-491A-ABA3-34462357CB17}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0BC6CF4E-DA9C-484F-890A-9C39C5660CEB}"/>
   </bookViews>
@@ -394,7 +394,7 @@
     <t>seed_id</t>
   </si>
   <si>
-    <t>juge</t>
+    <t>jute</t>
   </si>
 </sst>
 </file>
@@ -755,7 +755,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N115" sqref="N115"/>
+      <selection activeCell="I118" sqref="I118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18124,12 +18124,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18362,15 +18359,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2CD57BB-D08A-4DFF-9316-96A2B7916FDF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5149C0F-79C8-4B3B-B7C7-9D5FF5A21D35}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -18395,18 +18404,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5149C0F-79C8-4B3B-B7C7-9D5FF5A21D35}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2CD57BB-D08A-4DFF-9316-96A2B7916FDF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="8c008993-a31f-4b40-b1f3-88dd9c6e1924"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="360018dd-41eb-4458-b1d4-4b46a95a2b02"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>